--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
   <si>
     <t>사이트</t>
   </si>
@@ -697,6 +697,9 @@
     <t>Listen (Deluxe)</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -739,9 +742,6 @@
     <t>SONY MUSIC</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>EDAM</t>
   </si>
   <si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1202,6 +1205,12 @@
       <c r="F2" t="s">
         <v>171</v>
       </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1223,10 +1232,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1249,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1275,10 +1284,10 @@
         <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1301,10 +1310,10 @@
         <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1327,10 +1336,10 @@
         <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,10 +1362,10 @@
         <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1379,10 +1388,10 @@
         <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1405,10 +1414,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1431,10 +1440,10 @@
         <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1456,6 +1465,12 @@
       <c r="F12" t="s">
         <v>171</v>
       </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -1477,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1503,10 +1518,10 @@
         <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1529,10 +1544,10 @@
         <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1555,10 +1570,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1581,10 +1596,10 @@
         <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1606,6 +1621,12 @@
       <c r="F18" t="s">
         <v>171</v>
       </c>
+      <c r="G18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -1627,10 +1648,10 @@
         <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1653,10 +1674,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1679,10 +1700,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1705,10 +1726,10 @@
         <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1731,10 +1752,10 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1757,10 +1778,10 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1783,10 +1804,10 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1809,10 +1830,10 @@
         <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1835,10 +1856,10 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1861,10 +1882,10 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1886,6 +1907,12 @@
       <c r="F29" t="s">
         <v>171</v>
       </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
@@ -1907,10 +1934,10 @@
         <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1933,10 +1960,10 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1959,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1988,7 +2015,7 @@
         <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2011,10 +2038,10 @@
         <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2037,10 +2064,10 @@
         <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2063,10 +2090,10 @@
         <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,7 +2119,7 @@
         <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,7 +2145,7 @@
         <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2141,10 +2168,10 @@
         <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2170,7 +2197,7 @@
         <v>245</v>
       </c>
       <c r="H40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2192,6 +2219,12 @@
       <c r="F41" t="s">
         <v>171</v>
       </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
@@ -2212,6 +2245,12 @@
       <c r="F42" t="s">
         <v>171</v>
       </c>
+      <c r="G42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
@@ -2236,7 +2275,7 @@
         <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2262,7 +2301,7 @@
         <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2310,6 +2349,12 @@
       <c r="F46" t="s">
         <v>171</v>
       </c>
+      <c r="G46" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
@@ -2331,10 +2376,10 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2357,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2409,10 +2454,10 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2438,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="H51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2464,7 +2509,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2487,10 +2532,10 @@
         <v>193</v>
       </c>
       <c r="G53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2516,7 +2561,7 @@
         <v>249</v>
       </c>
       <c r="H54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2539,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2568,7 +2613,7 @@
         <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2591,10 +2636,10 @@
         <v>196</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2620,7 +2665,7 @@
         <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2646,7 +2691,7 @@
         <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2672,7 +2717,7 @@
         <v>252</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2694,6 +2739,12 @@
       <c r="F61" t="s">
         <v>171</v>
       </c>
+      <c r="G61" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
@@ -2718,7 +2769,7 @@
         <v>249</v>
       </c>
       <c r="H62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2744,7 +2795,7 @@
         <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2767,10 +2818,10 @@
         <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2793,10 +2844,10 @@
         <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2822,7 +2873,7 @@
         <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2848,7 +2899,7 @@
         <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2874,7 +2925,7 @@
         <v>253</v>
       </c>
       <c r="H68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2900,7 +2951,7 @@
         <v>254</v>
       </c>
       <c r="H69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2923,10 +2974,10 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2949,10 +3000,10 @@
         <v>206</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2975,10 +3026,10 @@
         <v>207</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3004,7 +3055,7 @@
         <v>255</v>
       </c>
       <c r="H73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3030,7 +3081,7 @@
         <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3053,10 +3104,10 @@
         <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3079,10 +3130,10 @@
         <v>211</v>
       </c>
       <c r="G76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3131,10 +3182,10 @@
         <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3157,10 +3208,10 @@
         <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3182,6 +3233,12 @@
       <c r="F80" t="s">
         <v>215</v>
       </c>
+      <c r="G80" t="s">
+        <v>256</v>
+      </c>
+      <c r="H80" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3203,10 +3260,10 @@
         <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3228,6 +3285,12 @@
       <c r="F82" t="s">
         <v>90</v>
       </c>
+      <c r="G82" t="s">
+        <v>239</v>
+      </c>
+      <c r="H82" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -3249,10 +3312,10 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3275,10 +3338,10 @@
         <v>217</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3301,10 +3364,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3330,7 +3393,7 @@
         <v>249</v>
       </c>
       <c r="H86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3353,10 +3416,10 @@
         <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3382,7 +3445,7 @@
         <v>249</v>
       </c>
       <c r="H88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3405,10 +3468,10 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3431,10 +3494,10 @@
         <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3456,6 +3519,12 @@
       <c r="F91" t="s">
         <v>171</v>
       </c>
+      <c r="G91" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
@@ -3476,6 +3545,12 @@
       <c r="F92" t="s">
         <v>221</v>
       </c>
+      <c r="G92" t="s">
+        <v>256</v>
+      </c>
+      <c r="H92" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -3497,10 +3572,10 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3523,10 +3598,10 @@
         <v>222</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3549,10 +3624,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3575,10 +3650,10 @@
         <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3601,10 +3676,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3627,10 +3702,10 @@
         <v>224</v>
       </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3656,7 +3731,7 @@
         <v>242</v>
       </c>
       <c r="H99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3679,10 +3754,10 @@
         <v>225</v>
       </c>
       <c r="G100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3705,10 +3780,10 @@
         <v>226</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-30</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220430_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -761,9 +761,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -2480,7 +2477,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
         <v>237</v>
@@ -2506,7 +2503,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H52" t="s">
         <v>237</v>
@@ -2558,7 +2555,7 @@
         <v>194</v>
       </c>
       <c r="G54" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
         <v>237</v>
@@ -2610,7 +2607,7 @@
         <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H56" t="s">
         <v>237</v>
@@ -2714,7 +2711,7 @@
         <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
         <v>237</v>
@@ -2766,7 +2763,7 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
         <v>237</v>
@@ -2922,7 +2919,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
         <v>237</v>
@@ -2948,7 +2945,7 @@
         <v>205</v>
       </c>
       <c r="G69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H69" t="s">
         <v>237</v>
@@ -3052,7 +3049,7 @@
         <v>208</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
         <v>237</v>
@@ -3078,7 +3075,7 @@
         <v>209</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>237</v>
@@ -3234,7 +3231,7 @@
         <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H80" t="s">
         <v>237</v>
@@ -3312,7 +3309,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H83" t="s">
         <v>237</v>
@@ -3390,7 +3387,7 @@
         <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H86" t="s">
         <v>237</v>
@@ -3442,7 +3439,7 @@
         <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H88" t="s">
         <v>237</v>
@@ -3546,7 +3543,7 @@
         <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H92" t="s">
         <v>237</v>
@@ -3572,7 +3569,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" t="s">
         <v>237</v>
@@ -3650,7 +3647,7 @@
         <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H96" t="s">
         <v>237</v>
@@ -3676,7 +3673,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H97" t="s">
         <v>237</v>
@@ -3702,7 +3699,7 @@
         <v>224</v>
       </c>
       <c r="G98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H98" t="s">
         <v>237</v>
